--- a/SERVER/Common/Data/excel/DialogueDefine.xlsx
+++ b/SERVER/Common/Data/excel/DialogueDefine.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -53,6 +53,15 @@
   </si>
   <si>
     <t>选项id列表</t>
+  </si>
+  <si>
+    <t>跳转</t>
+  </si>
+  <si>
+    <t>接取任务id</t>
+  </si>
+  <si>
+    <t>提交任务id</t>
   </si>
   <si>
     <t>村长达萨贝[1]</t>
@@ -704,7 +713,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -717,9 +726,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1040,32 +1046,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="15.375" style="3" customWidth="1"/>
     <col min="2" max="2" width="27.9166666666667" style="3" customWidth="1"/>
     <col min="3" max="3" width="34.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="22.9166666666667" style="3" customWidth="1"/>
-    <col min="5" max="5" width="57.9166666666667" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.9166666666667" style="3" customWidth="1"/>
     <col min="6" max="6" width="19.4166666666667" style="3" customWidth="1"/>
     <col min="7" max="7" width="16" style="3" customWidth="1"/>
-    <col min="8" max="15" width="9" style="3"/>
-    <col min="16" max="16" width="10" style="3" customWidth="1"/>
-    <col min="17" max="17" width="9" style="3"/>
-    <col min="18" max="18" width="10.75" style="3" customWidth="1"/>
-    <col min="19" max="20" width="12.625" style="3" customWidth="1"/>
-    <col min="21" max="23" width="9" style="3"/>
-    <col min="24" max="24" width="9" style="3" customWidth="1"/>
-    <col min="25" max="26" width="9" style="3"/>
-    <col min="27" max="27" width="12" customWidth="1"/>
-    <col min="28" max="29" width="9" style="3"/>
-    <col min="31" max="16384" width="9" style="3"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -1114,7 +1110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:4">
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1127,72 +1123,64 @@
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" ht="18" customHeight="1" spans="1:27">
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1" spans="1:4">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA4" s="5"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:27">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA5" s="5"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:27">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
       </c>
-      <c r="AA6" s="5"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:27">
+    </row>
+    <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA7" s="5"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="3">
         <v>1001</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA8" s="3"/>
-    </row>
-    <row r="9" customHeight="1" spans="27:27">
-      <c r="AA9" s="3"/>
-    </row>
-    <row r="10" customHeight="1" spans="27:27">
-      <c r="AA10" s="3"/>
-    </row>
-    <row r="11" customHeight="1" spans="27:27">
-      <c r="AA11" s="3"/>
-    </row>
-    <row r="12" customHeight="1" spans="27:27">
-      <c r="AA12" s="5"/>
+        <v>22</v>
+      </c>
     </row>
     <row r="16" customHeight="1" spans="3:3">
       <c r="C16" s="4"/>

--- a/SERVER/Common/Data/excel/DialogueDefine.xlsx
+++ b/SERVER/Common/Data/excel/DialogueDefine.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="10610"/>
+    <workbookView windowWidth="22700" windowHeight="6640"/>
   </bookViews>
   <sheets>
-    <sheet name="TaskDefine" sheetId="1" r:id="rId1"/>
+    <sheet name="DialogueDefine" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="6"/>

--- a/SERVER/Common/Data/excel/DialogueDefine.xlsx
+++ b/SERVER/Common/Data/excel/DialogueDefine.xlsx
@@ -64,7 +64,7 @@
     <t>提交任务id</t>
   </si>
   <si>
-    <t>村长达萨贝[1]</t>
+    <t>铁匠达萨贝[1]</t>
   </si>
   <si>
     <t>你好</t>
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="6"/>

--- a/SERVER/Common/Data/excel/DialogueDefine.xlsx
+++ b/SERVER/Common/Data/excel/DialogueDefine.xlsx
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="6"/>

--- a/SERVER/Common/Data/excel/DialogueDefine.xlsx
+++ b/SERVER/Common/Data/excel/DialogueDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22700" windowHeight="6640"/>
+    <workbookView windowWidth="22700" windowHeight="6630"/>
   </bookViews>
   <sheets>
     <sheet name="DialogueDefine" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Options</t>
   </si>
   <si>
-    <t>jump</t>
+    <t>Jump</t>
   </si>
   <si>
     <t>ReceiveTask</t>
@@ -37,15 +37,15 @@
     <t>SubmitTask</t>
   </si>
   <si>
+    <t>SaveDialogueId</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>int[]</t>
-  </si>
-  <si>
     <t>介绍</t>
   </si>
   <si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>滚</t>
+  </si>
+  <si>
+    <t>滚蛋</t>
   </si>
   <si>
     <t>二笔[1]</t>
@@ -1046,13 +1049,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="15.375" style="3" customWidth="1"/>
     <col min="2" max="2" width="27.9166666666667" style="3" customWidth="1"/>
@@ -1061,10 +1064,11 @@
     <col min="5" max="5" width="14.9166666666667" style="3" customWidth="1"/>
     <col min="6" max="6" width="19.4166666666667" style="3" customWidth="1"/>
     <col min="7" max="7" width="16" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="8" max="8" width="20.6666666666667" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1086,28 +1090,34 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:7">
@@ -1133,7 +1143,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="18" customHeight="1" spans="1:4">
+    <row r="4" ht="18" customHeight="1" spans="1:8">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1146,16 +1156,40 @@
       <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:3">
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:5">
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1165,25 +1199,75 @@
       <c r="E6" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:3">
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:8">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:2">
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:8">
       <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:8">
+      <c r="A9" s="3">
         <v>1001</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="3:3">
-      <c r="C16" s="4"/>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customHeight="1" spans="3:3">
       <c r="C17" s="4"/>
@@ -1194,8 +1278,8 @@
     <row r="19" customHeight="1" spans="3:3">
       <c r="C19" s="4"/>
     </row>
-    <row r="21" customHeight="1" spans="3:3">
-      <c r="C21" s="4"/>
+    <row r="20" customHeight="1" spans="3:3">
+      <c r="C20" s="4"/>
     </row>
     <row r="22" customHeight="1" spans="3:3">
       <c r="C22" s="4"/>
@@ -1211,6 +1295,9 @@
     </row>
     <row r="26" customHeight="1" spans="3:3">
       <c r="C26" s="4"/>
+    </row>
+    <row r="27" customHeight="1" spans="3:3">
+      <c r="C27" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SERVER/Common/Data/excel/DialogueDefine.xlsx
+++ b/SERVER/Common/Data/excel/DialogueDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22700" windowHeight="6630"/>
+    <workbookView windowWidth="22920" windowHeight="7190"/>
   </bookViews>
   <sheets>
     <sheet name="DialogueDefine" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <t>Jump</t>
   </si>
   <si>
-    <t>ReceiveTask</t>
+    <t>AcceptTask</t>
   </si>
   <si>
     <t>SubmitTask</t>
@@ -58,10 +58,10 @@
     <t>跳转</t>
   </si>
   <si>
-    <t>接取任务id</t>
-  </si>
-  <si>
-    <t>提交任务id</t>
+    <t>接取任务id，接取失败时跳转的对话id</t>
+  </si>
+  <si>
+    <t>提交任务id，提交失败时跳转的对话id</t>
   </si>
   <si>
     <t>铁匠达萨贝[1]</t>
@@ -1052,7 +1052,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="7"/>
@@ -1062,8 +1062,8 @@
     <col min="3" max="3" width="34.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="22.9166666666667" style="3" customWidth="1"/>
     <col min="5" max="5" width="14.9166666666667" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.4166666666667" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="43.3333333333333" style="3" customWidth="1"/>
     <col min="8" max="8" width="20.6666666666667" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
@@ -1111,10 +1111,10 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>8</v>
@@ -1159,12 +1159,8 @@
       <c r="E4" s="3">
         <v>0</v>
       </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="3">
         <v>0</v>
       </c>
@@ -1179,12 +1175,8 @@
       <c r="E5" s="3">
         <v>0</v>
       </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="3">
         <v>0</v>
       </c>
@@ -1199,12 +1191,8 @@
       <c r="E6" s="3">
         <v>4</v>
       </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="3">
         <v>0</v>
       </c>
@@ -1219,12 +1207,8 @@
       <c r="E7" s="3">
         <v>0</v>
       </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="3">
         <v>5</v>
       </c>
@@ -1239,12 +1223,8 @@
       <c r="E8" s="3">
         <v>0</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="3">
         <v>0</v>
       </c>
@@ -1259,12 +1239,8 @@
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="3">
         <v>0</v>
       </c>

--- a/SERVER/Common/Data/excel/DialogueDefine.xlsx
+++ b/SERVER/Common/Data/excel/DialogueDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22920" windowHeight="7190"/>
+    <workbookView windowWidth="18070" windowHeight="7190"/>
   </bookViews>
   <sheets>
     <sheet name="DialogueDefine" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -40,6 +40,9 @@
     <t>SaveDialogueId</t>
   </si>
   <si>
+    <t>TipResource</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t>提交任务id，提交失败时跳转的对话id</t>
   </si>
   <si>
+    <t>头顶提示，疑问，感叹，星号</t>
+  </si>
+  <si>
     <t>铁匠达萨贝[1]</t>
   </si>
   <si>
@@ -71,6 +77,9 @@
   </si>
   <si>
     <t>[2,3]</t>
+  </si>
+  <si>
+    <t>疑问</t>
   </si>
   <si>
     <t>你好达萨贝</t>
@@ -1049,13 +1058,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.375" style="3" customWidth="1"/>
     <col min="2" max="2" width="27.9166666666667" style="3" customWidth="1"/>
@@ -1065,10 +1074,11 @@
     <col min="6" max="6" width="36.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="43.3333333333333" style="3" customWidth="1"/>
     <col min="8" max="8" width="20.6666666666667" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="3"/>
+    <col min="9" max="9" width="19.9166666666667" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1093,76 +1103,86 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1" spans="1:9">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
       <c r="H4" s="3">
         <v>0</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:8">
@@ -1170,13 +1190,11 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
       <c r="H5" s="3">
         <v>0</v>
       </c>
@@ -1186,13 +1204,11 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
       <c r="H6" s="3">
         <v>0</v>
       </c>
@@ -1202,13 +1218,11 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7" s="3">
         <v>0</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
       <c r="H7" s="3">
         <v>5</v>
       </c>
@@ -1218,13 +1232,11 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
       <c r="H8" s="3">
         <v>0</v>
       </c>
@@ -1234,13 +1246,11 @@
         <v>1001</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
       <c r="H9" s="3">
         <v>0</v>
       </c>

--- a/SERVER/Common/Data/excel/DialogueDefine.xlsx
+++ b/SERVER/Common/Data/excel/DialogueDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18070" windowHeight="7190"/>
+    <workbookView windowWidth="20330" windowHeight="7190"/>
   </bookViews>
   <sheets>
     <sheet name="DialogueDefine" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -73,28 +73,97 @@
     <t>铁匠达萨贝[1]</t>
   </si>
   <si>
-    <t>你好</t>
-  </si>
-  <si>
-    <t>[2,3]</t>
+    <t>哦，冒险者，你来了。我这里正好有两个紧急的任务需要人手，不知道你有没有兴趣？</t>
+  </si>
+  <si>
+    <t>[2,3,4,5]</t>
   </si>
   <si>
     <t>疑问</t>
   </si>
   <si>
-    <t>你好达萨贝</t>
-  </si>
-  <si>
-    <t>好个鸡蛋</t>
-  </si>
-  <si>
-    <t>滚</t>
-  </si>
-  <si>
-    <t>滚蛋</t>
-  </si>
-  <si>
-    <t>二笔[1]</t>
+    <t>取得20个哥布林指骨</t>
+  </si>
+  <si>
+    <t>取得10根骷髅骸骨</t>
+  </si>
+  <si>
+    <t>询问任务详情</t>
+  </si>
+  <si>
+    <t>拒绝任务</t>
+  </si>
+  <si>
+    <t>好选择！这些哥布林最近在附近的森林里搞破坏，影响了村民的生活。去把它们教训一下，把它们的指骨带回来。我会给你丰厚的报酬。</t>
+  </si>
+  <si>
+    <t>[102,103,104]</t>
+  </si>
+  <si>
+    <t>询问哥布林具体位置</t>
+  </si>
+  <si>
+    <t>询问报酬</t>
+  </si>
+  <si>
+    <t>直接出发</t>
+  </si>
+  <si>
+    <t>[1,3001]</t>
+  </si>
+  <si>
+    <t>就在东边的黑暗森林深处。小心，那里的哥布林非常凶残。</t>
+  </si>
+  <si>
+    <t>完成任务后，我会给你50金币，还有一把我亲自打造的匕首。</t>
+  </si>
+  <si>
+    <t>祝你好运，冒险者！等你凯旋归来。</t>
+  </si>
+  <si>
+    <t>非常好！这些骷髅最近在西边的废墟中徘徊，吓坏了不少村民。去消灭它们，把骸骨带回来，我会给予你应有的回报。</t>
+  </si>
+  <si>
+    <t>[1002,1003,1004]</t>
+  </si>
+  <si>
+    <t>询问骷髅具体位置</t>
+  </si>
+  <si>
+    <t>在西边的古老废墟中。那些骷髅似乎是被某种力量召唤出来的，小心应对。</t>
+  </si>
+  <si>
+    <t>完成任务后，我会给你200金币，还有一块珍贵的魔法石。</t>
+  </si>
+  <si>
+    <t>当然，第一个任务是去取得20个哥布林獠牙，这些哥布林在东边的黑暗森林中。第二个任务是去取得10根骷髅骸骨，这些骷髅在西边的古老废墟中徘徊。两个任务都有一定的危险性，但报酬也相应丰厚。</t>
+  </si>
+  <si>
+    <t>没关系，冒险者。希望下次还能找到你帮忙。保重。</t>
+  </si>
+  <si>
+    <t>你身上貌似已经有了接取的委托了。</t>
+  </si>
+  <si>
+    <t>你身上的东西似乎不够。</t>
+  </si>
+  <si>
+    <t>怎么样，东西已经带回来了吗？</t>
+  </si>
+  <si>
+    <t>[5001,5002]</t>
+  </si>
+  <si>
+    <t>是的，我来提交。</t>
+  </si>
+  <si>
+    <t>[1,3002]</t>
+  </si>
+  <si>
+    <t>还没有。</t>
+  </si>
+  <si>
+    <t>哦，真的非常感谢你冒险者，这是你应得的。</t>
   </si>
 </sst>
 </file>
@@ -1058,17 +1127,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.375" style="3" customWidth="1"/>
     <col min="2" max="2" width="27.9166666666667" style="3" customWidth="1"/>
-    <col min="3" max="3" width="34.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="105.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="22.9166666666667" style="3" customWidth="1"/>
     <col min="5" max="5" width="14.9166666666667" style="3" customWidth="1"/>
     <col min="6" max="6" width="36.5" style="3" customWidth="1"/>
@@ -1193,7 +1262,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -1207,7 +1276,7 @@
         <v>23</v>
       </c>
       <c r="E6" s="3">
-        <v>4</v>
+        <v>1001</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -1221,10 +1290,10 @@
         <v>24</v>
       </c>
       <c r="E7" s="3">
-        <v>0</v>
+        <v>1201</v>
       </c>
       <c r="H7" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:8">
@@ -1235,7 +1304,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>2001</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -1243,47 +1312,330 @@
     </row>
     <row r="9" customHeight="1" spans="1:8">
       <c r="A9" s="3">
+        <v>101</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:8">
+      <c r="A10" s="3">
+        <v>102</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="3">
+        <v>201</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:8">
+      <c r="A11" s="3">
+        <v>103</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="3">
+        <v>301</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:8">
+      <c r="A12" s="3">
+        <v>104</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3">
+        <v>401</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="3">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:8">
+      <c r="A13" s="3">
+        <v>201</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:8">
+      <c r="A14" s="3">
+        <v>301</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:8">
+      <c r="A15" s="3">
+        <v>401</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:8">
+      <c r="A16" s="3">
         <v>1001</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="3:3">
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" customHeight="1" spans="3:3">
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" customHeight="1" spans="3:3">
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" customHeight="1" spans="3:3">
-      <c r="C20" s="4"/>
-    </row>
-    <row r="22" customHeight="1" spans="3:3">
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" customHeight="1" spans="3:3">
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" customHeight="1" spans="3:3">
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" customHeight="1" spans="3:3">
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" customHeight="1" spans="3:3">
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" customHeight="1" spans="3:3">
-      <c r="C27" s="4"/>
+      <c r="C16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:8">
+      <c r="A17" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
+        <v>1101</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:8">
+      <c r="A18" s="3">
+        <v>1003</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3">
+        <v>1102</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:8">
+      <c r="A19" s="3">
+        <v>1004</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1103</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:8">
+      <c r="A20" s="3">
+        <v>1101</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:8">
+      <c r="A21" s="3">
+        <v>1102</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:8">
+      <c r="A22" s="3">
+        <v>1103</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:8">
+      <c r="A23" s="3">
+        <v>1201</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:8">
+      <c r="A24" s="3">
+        <v>2001</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:8">
+      <c r="A25" s="3">
+        <v>3001</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:8">
+      <c r="A26" s="3">
+        <v>3002</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:8">
+      <c r="A27" s="3">
+        <v>4001</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:8">
+      <c r="A28" s="3">
+        <v>5001</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="3">
+        <v>5003</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:8">
+      <c r="A29" s="3">
+        <v>5002</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:8">
+      <c r="A30" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SERVER/Common/Data/excel/DialogueDefine.xlsx
+++ b/SERVER/Common/Data/excel/DialogueDefine.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -67,6 +67,9 @@
     <t>提交任务id，提交失败时跳转的对话id</t>
   </si>
   <si>
+    <t>在npc说话时使用</t>
+  </si>
+  <si>
     <t>头顶提示，疑问，感叹，星号</t>
   </si>
   <si>
@@ -152,6 +155,9 @@
   </si>
   <si>
     <t>[5001,5002]</t>
+  </si>
+  <si>
+    <t>感叹</t>
   </si>
   <si>
     <t>是的，我来提交。</t>
@@ -1129,8 +1135,8 @@
   <sheetPr/>
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1227,8 +1233,11 @@
       <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:9">
@@ -1236,13 +1245,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -1251,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:8">
@@ -1259,7 +1268,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3">
         <v>101</v>
@@ -1273,7 +1282,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" s="3">
         <v>1001</v>
@@ -1287,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" s="3">
         <v>1201</v>
@@ -1301,7 +1310,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="3">
         <v>2001</v>
@@ -1316,10 +1325,10 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -1333,7 +1342,7 @@
         <v>102</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" s="3">
         <v>201</v>
@@ -1347,7 +1356,7 @@
         <v>103</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="3">
         <v>301</v>
@@ -1361,16 +1370,16 @@
         <v>104</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" s="3">
         <v>401</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H12" s="3">
-        <v>4001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:8">
@@ -1378,7 +1387,7 @@
         <v>201</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -1392,7 +1401,7 @@
         <v>301</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1406,14 +1415,14 @@
         <v>401</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
       </c>
       <c r="F15" s="3"/>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>4001</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:8">
@@ -1421,10 +1430,10 @@
         <v>1001</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -1438,7 +1447,7 @@
         <v>1002</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3">
@@ -1453,7 +1462,7 @@
         <v>1003</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3">
@@ -1468,7 +1477,7 @@
         <v>1004</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E19" s="3">
         <v>1103</v>
@@ -1482,7 +1491,7 @@
         <v>1101</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1496,7 +1505,7 @@
         <v>1102</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -1510,7 +1519,7 @@
         <v>1103</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1524,7 +1533,7 @@
         <v>1201</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1538,7 +1547,7 @@
         <v>2001</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1552,7 +1561,7 @@
         <v>3001</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E25" s="3">
         <v>0</v>
@@ -1566,7 +1575,7 @@
         <v>3002</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1575,21 +1584,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:8">
+    <row r="27" customHeight="1" spans="1:9">
       <c r="A27" s="3">
         <v>4001</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:8">
@@ -1597,13 +1609,13 @@
         <v>5001</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E28" s="3">
         <v>5003</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
@@ -1614,7 +1626,7 @@
         <v>5002</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1628,13 +1640,13 @@
         <v>5003</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
       </c>
       <c r="H30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
